--- a/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>42,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>43,57</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,03; 43,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,88; 45,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,97; 44,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>43,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>45,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,45</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,86; 44,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,31; 46,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,88; 45,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>43,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>43,87</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,72; 44,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,19; 44,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,59; 44,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,83</t>
+          <t>42,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,01</t>
+          <t>44,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,4</t>
+          <t>43,49</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,33; 43,34</t>
+          <t>41,68; 44,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,51; 44,59</t>
+          <t>44,04; 44,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,99; 43,77</t>
+          <t>42,27; 44,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,51</t>
+          <t>44,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,68</t>
+          <t>43,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,14</t>
+          <t>44,02</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,98; 43,93</t>
+          <t>43,47; 44,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,32; 45,1</t>
+          <t>43,49; 44,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,86; 44,47</t>
+          <t>43,64; 44,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>44,25</t>
+          <t>43,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,52</t>
+          <t>44,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,39</t>
+          <t>44,21</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,89; 44,58</t>
+          <t>43,12; 44,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,94; 46,18</t>
+          <t>42,95; 45,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,06; 45,26</t>
+          <t>43,28; 45,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>44,01</t>
+          <t>41,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>44,5</t>
+          <t>39,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44,26</t>
+          <t>40,66</t>
         </is>
       </c>
     </row>
@@ -879,24 +879,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,29; 44,41</t>
+          <t>40,85; 42,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,18; 44,78</t>
+          <t>39,36; 40,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,88; 44,5</t>
+          <t>40,11; 41,15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>44,15</t>
+          <t>43,32</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,3</t>
+          <t>43,89</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,22</t>
+          <t>43,61</t>
         </is>
       </c>
     </row>
@@ -929,185 +929,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,67; 44,58</t>
+          <t>42,57; 43,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,97; 44,63</t>
+          <t>43,53; 44,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,92; 44,51</t>
+          <t>43,18; 43,94</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>44,09</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>43,87</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>43,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>43,59; 44,49</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>43,18; 44,95</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>43,58; 44,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>41,46</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>39,77</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>40,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>40,82; 42,07</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>39,31; 40,23</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>40,09; 40,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>43,66</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>43,77</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>43,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>43,47; 43,85</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>43,57; 44,08</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>43,59; 43,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (SF12 física)</t>
+          <t>Calidad de vida asociada a la salud (SF12 física) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,03; 43,51</t>
+          <t>41,96; 43,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,88; 45,49</t>
+          <t>43,9; 45,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,97; 44,13</t>
+          <t>42,98; 44,17</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,86; 44,17</t>
+          <t>42,88; 44,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,31; 46,15</t>
+          <t>44,37; 46,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,88; 45,53</t>
+          <t>43,87; 45,43</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,72; 44,62</t>
+          <t>43,67; 44,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,19; 44,05</t>
+          <t>43,22; 44,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,59; 44,21</t>
+          <t>43,58; 44,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,68; 44,17</t>
+          <t>41,71; 44,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,04; 44,78</t>
+          <t>44,05; 44,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,27; 44,33</t>
+          <t>42,26; 44,35</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,47; 44,71</t>
+          <t>43,53; 44,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,49; 44,4</t>
+          <t>43,49; 44,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,64; 44,36</t>
+          <t>43,62; 44,38</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,12; 44,23</t>
+          <t>43,05; 44,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,95; 45,63</t>
+          <t>42,91; 45,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,28; 45,32</t>
+          <t>43,23; 45,38</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,85; 42,6</t>
+          <t>40,91; 42,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,36; 40,56</t>
+          <t>39,32; 40,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40,11; 41,15</t>
+          <t>40,11; 41,16</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,57; 43,71</t>
+          <t>42,57; 43,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,53; 44,46</t>
+          <t>43,52; 44,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,18; 43,94</t>
+          <t>43,22; 43,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Edad-trans_orig.xlsx
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,71</t>
+          <t>42,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,66</t>
+          <t>44,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,96; 43,54</t>
+          <t>42,22; 43,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,9; 45,51</t>
+          <t>43,61; 45,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,98; 44,17</t>
+          <t>43,05; 44,12</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,51</t>
+          <t>43,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,13</t>
+          <t>44,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,45</t>
+          <t>44,12</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,88; 44,22</t>
+          <t>42,99; 44,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,37; 46,22</t>
+          <t>44,13; 45,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,87; 45,43</t>
+          <t>43,69; 44,51</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,14</t>
+          <t>44,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,61</t>
+          <t>43,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,87</t>
+          <t>43,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,67; 44,58</t>
+          <t>43,74; 44,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,22; 44,02</t>
+          <t>43,38; 44,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,58; 44,2</t>
+          <t>43,68; 44,26</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,89</t>
+          <t>44,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,43</t>
+          <t>44,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,49</t>
+          <t>44,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,71; 44,14</t>
+          <t>43,65; 44,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,05; 44,78</t>
+          <t>43,99; 44,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,26; 44,35</t>
+          <t>43,93; 44,49</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,11</t>
+          <t>44,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,93</t>
+          <t>43,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,02</t>
+          <t>44,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,53; 44,68</t>
+          <t>43,57; 44,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,49; 44,39</t>
+          <t>43,47; 44,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,62; 44,38</t>
+          <t>43,64; 44,38</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,71</t>
+          <t>43,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,44</t>
+          <t>43,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,21</t>
+          <t>43,38</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,05; 44,3</t>
+          <t>43,09; 44,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,91; 45,65</t>
+          <t>42,53; 43,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,23; 45,38</t>
+          <t>43,01; 43,77</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>41,74</t>
+          <t>41,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,97</t>
+          <t>39,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,66</t>
+          <t>40,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,91; 42,56</t>
+          <t>40,89; 42,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,32; 40,58</t>
+          <t>39,25; 40,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40,11; 41,16</t>
+          <t>40,09; 41,14</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,32</t>
+          <t>43,68</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43,89</t>
+          <t>43,54</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,57; 43,69</t>
+          <t>43,44; 43,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,52; 44,51</t>
+          <t>43,31; 43,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,22; 43,97</t>
+          <t>43,45; 43,75</t>
         </is>
       </c>
     </row>
